--- a/00_Data/00_INPUTS/01_GEOSPATIAL DATA/Geospatial_data_description.xlsx
+++ b/00_Data/00_INPUTS/01_GEOSPATIAL DATA/Geospatial_data_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/a_hema_cgiar_org/Documents/Desktop/Poverty Mapping/Small area estimation/Burkina Faso/Application of Fay-Herriot Model for Burkina Faso/00.Data/00_Inputs/Geospatial Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GT2025\GT-ISE-3-ENSAE\00_Data\00_INPUTS\01_GEOSPATIAL DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{00A8F66D-F9D8-407D-B495-65DCA8B17E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA517F2-01D3-4661-907F-8F5C79F5E292}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC61700-775F-4FFE-8BEC-78B485CFBB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96153282-11AE-4CFD-B5B8-BE53F0AB7447}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="8" xr2:uid="{96153282-11AE-4CFD-B5B8-BE53F0AB7447}"/>
   </bookViews>
   <sheets>
     <sheet name="Malaria" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="182">
   <si>
     <t>Global Pf Parasite Rate</t>
   </si>
@@ -576,13 +574,31 @@
   </si>
   <si>
     <t>'urban_stdDev',</t>
+  </si>
+  <si>
+    <t>https://hub.worldpop.org/geodata/listing?id=78</t>
+  </si>
+  <si>
+    <t>https://hub.worldpop.org/geodata/listing?id=88</t>
+  </si>
+  <si>
+    <t>https://hub.worldpop.org/geodata/summary?id=50581</t>
+  </si>
+  <si>
+    <t>School-Age population in 2020</t>
+  </si>
+  <si>
+    <t>https://hub.worldpop.org/geodata/listing?id=38</t>
+  </si>
+  <si>
+    <t>Women of childbearing age of 15-49 years old in 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1028,21 +1044,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6FF71D-8790-472E-B24B-4D229C230758}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E13"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1104,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1124,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +1164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1188,7 +1204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1216,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1247,22 +1263,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562E725E-2CE3-40D2-AF49-A27B70D3443B}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="7" width="70.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="70.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1301,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1308,7 +1324,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1354,7 +1370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1376,7 +1392,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1387,7 +1403,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1415,21 +1431,21 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1455,7 +1471,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1478,7 +1494,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1512,7 +1528,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="28">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1535,7 +1551,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="28">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1556,7 +1572,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1576,7 +1592,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1596,7 +1612,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1616,7 +1632,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="28">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1639,7 +1655,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1662,7 +1678,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1685,7 +1701,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1702,7 +1718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="28">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -1725,7 +1741,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1762,15 +1778,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1796,7 +1812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -1819,7 +1835,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1842,7 +1858,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1865,7 +1881,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1888,7 +1904,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1911,7 +1927,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -1934,7 +1950,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -1973,7 +1989,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1981,17 +1997,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3F0E0E-85F3-4565-A7B7-A030D1F75F31}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="I3" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2007,13 +2028,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="2" max="2" width="69.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2021,7 +2042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2029,7 +2050,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -2053,17 +2074,17 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>123</v>
       </c>
@@ -2080,7 +2101,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -2105,7 +2126,7 @@
         <v>'count_stdDev',</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -2130,7 +2151,7 @@
         <v>'cv_area_stdDev',</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -2155,7 +2176,7 @@
         <v>'cv_length_stdDev',</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -2180,7 +2201,7 @@
         <v>'density_stdDev',</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -2205,7 +2226,7 @@
         <v>'mean_area_stdDev',</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -2230,7 +2251,7 @@
         <v>'mean_length_stdDev',</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -2255,7 +2276,7 @@
         <v>'total_length_stdDev',</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2280,10 +2301,10 @@
         <v>'urban_stdDev',</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="B13" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>136</v>
       </c>
@@ -2300,7 +2321,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>141</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>146</v>
       </c>
@@ -2334,7 +2355,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>151</v>
       </c>
@@ -2351,7 +2372,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>156</v>
       </c>
@@ -2368,7 +2389,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>161</v>
       </c>
@@ -2385,7 +2406,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>166</v>
       </c>
@@ -2402,7 +2423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>171</v>
       </c>
@@ -2426,27 +2447,52 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E8AB33-7D04-4179-BC2C-1F7D89439C14}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="36.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
